--- a/datasets/cleaned/final_dataset_dynamic_dedup.xlsx
+++ b/datasets/cleaned/final_dataset_dynamic_dedup.xlsx
@@ -1155,7 +1155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/datasets/cleaned/final_dataset_dynamic_dedup.xlsx
+++ b/datasets/cleaned/final_dataset_dynamic_dedup.xlsx
@@ -1155,7 +1155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1179,7 +1179,7 @@
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="20.9140625" customWidth="1"/>
     <col min="9" max="9" width="14.08203125" customWidth="1"/>
-    <col min="10" max="10" width="14.9140625" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
